--- a/Stocks/SYM.xlsx
+++ b/Stocks/SYM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Financials/Ações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{2EFFA12C-FF92-4A6C-A531-D8451F3C8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E042E5A8-9C83-4D29-A183-68E3EB1CC01A}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{2EFFA12C-FF92-4A6C-A531-D8451F3C8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B761A6CD-4319-40C0-8C62-3051EF58FCBB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96C9B965-13A3-43DF-96C2-385B83502C89}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{96C9B965-13A3-43DF-96C2-385B83502C89}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>Price</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>SGA</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -460,13 +478,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>7126</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>8458</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -510,13 +528,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>7134</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>8466</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>110067</xdr:rowOff>
@@ -864,9 +882,9 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -880,7 +898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
         <v>1</v>
       </c>
@@ -888,7 +906,7 @@
         <v>556.572</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>2</v>
       </c>
@@ -897,7 +915,7 @@
         <v>26158.884000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>3</v>
       </c>
@@ -906,7 +924,7 @@
         <v>1358.7149999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -918,7 +936,7 @@
         <v>238.23200000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -930,7 +948,7 @@
         <v>1120.4829999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -939,75 +957,75 @@
         <v>25038.401000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -1027,41 +1045,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE501B9-B3DA-43CD-B0C6-E69918D5AA4D}">
-  <dimension ref="A2:BD49"/>
+  <dimension ref="A2:BK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.19921875" customWidth="1"/>
-    <col min="20" max="20" width="10.3984375" customWidth="1"/>
-    <col min="21" max="21" width="10.19921875" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="10.09765625" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="9.796875" customWidth="1"/>
-    <col min="26" max="26" width="9.8984375" customWidth="1"/>
-    <col min="27" max="27" width="9.59765625" customWidth="1"/>
-    <col min="28" max="29" width="9.8984375" customWidth="1"/>
-    <col min="30" max="30" width="9.796875" customWidth="1"/>
-    <col min="31" max="31" width="9.59765625" customWidth="1"/>
-    <col min="32" max="32" width="9.69921875" customWidth="1"/>
-    <col min="33" max="33" width="9.5" customWidth="1"/>
-    <col min="34" max="34" width="9.59765625" customWidth="1"/>
-    <col min="35" max="35" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="27" max="27" width="10.375" customWidth="1"/>
+    <col min="28" max="28" width="10.25" customWidth="1"/>
+    <col min="29" max="29" width="14.5" customWidth="1"/>
+    <col min="30" max="30" width="10.125" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="32" max="32" width="9.75" customWidth="1"/>
+    <col min="33" max="33" width="9.875" customWidth="1"/>
+    <col min="34" max="34" width="9.625" customWidth="1"/>
+    <col min="35" max="36" width="9.875" customWidth="1"/>
+    <col min="37" max="37" width="9.75" customWidth="1"/>
+    <col min="38" max="38" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="9.75" customWidth="1"/>
+    <col min="40" max="40" width="9.5" customWidth="1"/>
+    <col min="41" max="41" width="9.625" customWidth="1"/>
+    <col min="42" max="42" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -1098,78 +1116,96 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>90</v>
+      </c>
       <c r="R2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" t="s">
         <v>7</v>
       </c>
-      <c r="S2">
+      <c r="Z2">
         <v>2022</v>
       </c>
-      <c r="T2">
-        <f>+S2+1</f>
+      <c r="AA2">
+        <f>+Z2+1</f>
         <v>2023</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:AI2" si="0">+T2+1</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AP2" si="0">+AA2+1</f>
         <v>2024</v>
       </c>
-      <c r="V2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="W2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Z2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AA2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AB2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AC2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AD2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AE2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AF2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AG2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AH2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AI2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1206,21 +1242,25 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <f t="shared" ref="S3:S6" si="1">SUM(F3:I3)</f>
-        <v>567993</v>
+      <c r="S3" t="s">
+        <v>7</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T10" si="2">SUM(J3:M3)</f>
-        <v>1138059</v>
+        <v>559.10799999999995</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z6" si="1">SUM(F3:I3)</f>
+        <v>567993</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA10" si="2">SUM(J3:M3)</f>
+        <v>1138059</v>
+      </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1250,8 +1290,15 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1288,21 +1335,25 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <f t="shared" si="1"/>
-        <v>3735</v>
+      <c r="S4" t="s">
+        <v>7</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" si="2"/>
-        <v>6601</v>
+        <v>8.1210000000000004</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="Z4" s="1">
+        <f t="shared" si="1"/>
+        <v>3735</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="2"/>
+        <v>6601</v>
+      </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -1332,8 +1383,15 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1370,21 +1428,25 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <f t="shared" si="1"/>
-        <v>21584</v>
+      <c r="S5" t="s">
+        <v>7</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="2"/>
-        <v>32231</v>
+        <v>24.891999999999999</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="Z5" s="1">
+        <f t="shared" si="1"/>
+        <v>21584</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="2"/>
+        <v>32231</v>
+      </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
@@ -1414,8 +1476,15 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+    </row>
+    <row r="6" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1456,87 +1525,91 @@
         <v>391888</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4">
+      <c r="S6">
+        <v>549</v>
+      </c>
+      <c r="T6" s="4">
+        <f>+T3+T4+T5</f>
+        <v>592.12099999999998</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
         <f t="shared" si="1"/>
         <v>593312</v>
       </c>
-      <c r="T6" s="4">
+      <c r="AA6" s="4">
         <f t="shared" si="2"/>
         <v>1176891</v>
       </c>
-      <c r="U6" s="4">
-        <f>+T6*1.01</f>
-        <v>1188659.9099999999</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" ref="V6:W6" si="4">+U6*1.02</f>
-        <v>1212433.1081999999</v>
-      </c>
-      <c r="W6" s="4">
+      <c r="AB6" s="4">
+        <v>1788.2</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ref="AC6:AD6" si="4">+AB6*1.02</f>
+        <v>1823.9640000000002</v>
+      </c>
+      <c r="AD6" s="4">
         <f t="shared" si="4"/>
-        <v>1236681.770364</v>
-      </c>
-      <c r="X6" s="4">
-        <f>+W6*1.01</f>
-        <v>1249048.5880676401</v>
-      </c>
-      <c r="Y6" s="4">
-        <f t="shared" ref="Y6:AI6" si="5">+X6*1.01</f>
-        <v>1261539.0739483165</v>
-      </c>
-      <c r="Z6" s="4">
-        <f t="shared" si="5"/>
-        <v>1274154.4646877996</v>
-      </c>
-      <c r="AA6" s="4">
-        <f t="shared" si="5"/>
-        <v>1286896.0093346776</v>
-      </c>
-      <c r="AB6" s="4">
-        <f t="shared" si="5"/>
-        <v>1299764.9694280245</v>
-      </c>
-      <c r="AC6" s="4">
-        <f t="shared" si="5"/>
-        <v>1312762.6191223047</v>
-      </c>
-      <c r="AD6" s="4">
-        <f t="shared" si="5"/>
-        <v>1325890.2453135278</v>
+        <v>1860.4432800000002</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" si="5"/>
-        <v>1339149.147766663</v>
+        <f>+AD6*1.01</f>
+        <v>1879.0477128000002</v>
       </c>
       <c r="AF6" s="4">
-        <f t="shared" si="5"/>
-        <v>1352540.6392443296</v>
+        <f t="shared" ref="AF6:AP6" si="5">+AE6*1.01</f>
+        <v>1897.8381899280002</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
-        <v>1366066.0456367729</v>
+        <v>1916.8165718272803</v>
       </c>
       <c r="AH6" s="4">
         <f t="shared" si="5"/>
-        <v>1379726.7060931406</v>
+        <v>1935.9847375455531</v>
       </c>
       <c r="AI6" s="4">
         <f t="shared" si="5"/>
-        <v>1393523.973154072</v>
-      </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
+        <v>1955.3445849210086</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="5"/>
+        <v>1974.8980307702186</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="shared" si="5"/>
+        <v>1994.6470110779208</v>
+      </c>
+      <c r="AL6" s="4">
+        <f t="shared" si="5"/>
+        <v>2014.5934811887</v>
+      </c>
+      <c r="AM6" s="4">
+        <f t="shared" si="5"/>
+        <v>2034.739416000587</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="5"/>
+        <v>2055.0868101605929</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="5"/>
+        <v>2075.6376782621987</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="5"/>
+        <v>2096.3940550448206</v>
+      </c>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
@@ -1551,8 +1624,15 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+    </row>
+    <row r="7" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1585,39 +1665,43 @@
         <v>321425</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="1">
-        <f t="shared" ref="S7:S13" si="6">SUM(F7:I7)</f>
+      <c r="R7" s="1"/>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="1">
+        <v>457.911</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="1">
+        <f t="shared" ref="Z7:Z13" si="6">SUM(F7:I7)</f>
         <v>464179</v>
       </c>
-      <c r="T7" s="1">
+      <c r="AA7" s="1">
         <f t="shared" si="2"/>
         <v>940076</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="1" t="s">
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
@@ -1637,8 +1721,15 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+    </row>
+    <row r="8" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1671,39 +1762,43 @@
         <v>1842</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1.756</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="6">
+      <c r="W8" s="6">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="1">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="1">
         <f t="shared" si="6"/>
         <v>4390</v>
       </c>
-      <c r="T8" s="1">
+      <c r="AA8" s="1">
         <f t="shared" si="2"/>
         <v>9222</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
@@ -1723,8 +1818,15 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+    </row>
+    <row r="9" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1757,39 +1859,43 @@
         <v>9832</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="1">
+        <v>24.832000000000001</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="5">
+      <c r="W9" s="5">
         <v>0.09</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="1">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="1">
         <f t="shared" si="6"/>
         <v>25096</v>
       </c>
-      <c r="T9" s="1">
+      <c r="AA9" s="1">
         <f t="shared" si="2"/>
         <v>37854</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
@@ -1809,8 +1915,15 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+    </row>
+    <row r="10" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1851,31 +1964,38 @@
         <v>333099</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="1">
-        <f>NPV(P9,U6,AI6)</f>
-        <v>2263414.927240192</v>
-      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4">
+      <c r="S10">
+        <v>441.8</v>
+      </c>
+      <c r="T10" s="4">
+        <f>+T9+T8+T7</f>
+        <v>484.49900000000002</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" s="1">
+        <f>NPV(W9,AB6,AP6)</f>
+        <v>3405.0433928497769</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4">
         <f t="shared" si="6"/>
         <v>493665</v>
       </c>
-      <c r="T10" s="4">
+      <c r="AA10" s="4">
         <f t="shared" si="2"/>
         <v>987152</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
+      <c r="AB10" s="4">
+        <v>1542.5</v>
+      </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -1894,18 +2014,25 @@
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+    </row>
+    <row r="11" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +2041,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:S11" si="8">+F6-F10</f>
+        <f t="shared" ref="F11:Z11" si="8">+F6-F10</f>
         <v>14468</v>
       </c>
       <c r="G11" s="4">
@@ -1946,33 +2073,42 @@
         <v>58789</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11">
+        <f>+S6-S10</f>
+        <v>107.19999999999999</v>
+      </c>
+      <c r="T11" s="4">
+        <f>+T6-T10</f>
+        <v>107.62199999999996</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="1">
-        <f>+P10+main!K8</f>
-        <v>2264535.410240192</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="4">
+      <c r="W11" s="1">
+        <f>+W10+main!K8</f>
+        <v>4525.526392849777</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="4">
         <f t="shared" si="8"/>
         <v>99647</v>
       </c>
-      <c r="T11" s="4">
-        <f t="shared" ref="T11" si="9">+T6-T10</f>
+      <c r="AA11" s="4">
+        <f t="shared" ref="AA11" si="9">+AA6-AA10</f>
         <v>189739</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="AB11" s="1">
+        <f>+AB6-AB10</f>
+        <v>245.70000000000005</v>
+      </c>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="AD11" s="6"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
@@ -1999,8 +2135,15 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+    </row>
+    <row r="12" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2033,30 +2176,31 @@
         <v>45791</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="4">
-        <f>+P11/main!K4</f>
-        <v>4068.7196090356538</v>
-      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
+        <v>52.146999999999998</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" s="4">
+        <f>+W11/main!K4</f>
+        <v>8.1310708998113039</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1">
         <f t="shared" si="6"/>
         <v>124141</v>
       </c>
-      <c r="T12" s="1">
-        <f t="shared" ref="T12:T18" si="10">SUM(J12:M12)</f>
+      <c r="AA12" s="1">
+        <f t="shared" ref="AA12:AA18" si="10">SUM(J12:M12)</f>
         <v>195042</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -2086,8 +2230,15 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2120,29 +2271,30 @@
         <v>66933</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="1">
-        <v>58</v>
-      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
+        <v>75.67</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="1">
+        <v>58</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1">
         <f t="shared" si="6"/>
         <v>115881</v>
       </c>
-      <c r="T13" s="1">
+      <c r="AA13" s="1">
         <f t="shared" si="10"/>
         <v>217927</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -2172,8 +2324,15 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2182,7 +2341,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:S14" si="11">+F12+F13</f>
+        <f t="shared" ref="F14:Z14" si="11">+F12+F13</f>
         <v>37543</v>
       </c>
       <c r="G14" s="1">
@@ -2214,30 +2373,32 @@
         <v>112724</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="6">
-        <f>+P13/P12-1</f>
-        <v>-0.98574490120400637</v>
-      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
+        <f>+T12+T13</f>
+        <v>127.81700000000001</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="6">
+        <f>+W13/W12-1</f>
+        <v>6.1331317503757097</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1">
         <f t="shared" si="11"/>
         <v>240022</v>
       </c>
-      <c r="T14" s="1">
+      <c r="AA14" s="1">
         <f t="shared" si="10"/>
         <v>412969</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -2267,8 +2428,15 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2445,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <f t="shared" ref="F15:S15" si="12">+F11-F14</f>
+        <f t="shared" ref="F15:Z15" si="12">+F11-F14</f>
         <v>-23075</v>
       </c>
       <c r="G15" s="1">
@@ -2313,21 +2481,26 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1">
-        <f t="shared" si="12"/>
-        <v>-140375</v>
+      <c r="S15">
+        <v>-32.1</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="10"/>
-        <v>-223230</v>
+        <f>+T11-T14</f>
+        <v>-20.19500000000005</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="Z15" s="1">
+        <f t="shared" si="12"/>
+        <v>-140375</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="10"/>
+        <v>-223230</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -2357,8 +2530,15 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2389,21 +2569,25 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1">
-        <f t="shared" ref="S16:S18" si="13">SUM(F16:I16)</f>
-        <v>1083</v>
+      <c r="S16">
+        <v>-1.4</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="10"/>
-        <v>11358</v>
+        <v>-28.105</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="Z16" s="1">
+        <f t="shared" ref="Z16:Z18" si="13">SUM(F16:I16)</f>
+        <v>1083</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="10"/>
+        <v>11358</v>
+      </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -2433,8 +2617,15 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2471,21 +2662,27 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1">
-        <f t="shared" si="13"/>
-        <v>139089</v>
+      <c r="S17">
+        <f>+S16+S15</f>
+        <v>-33.5</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="10"/>
-        <v>212514</v>
+        <f>+T15+T16</f>
+        <v>-48.300000000000054</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="Z17" s="1">
+        <f t="shared" si="13"/>
+        <v>139089</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="10"/>
+        <v>212514</v>
+      </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -2515,8 +2712,15 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2549,21 +2753,25 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1">
-        <f t="shared" si="13"/>
-        <v>-251</v>
+      <c r="S18">
+        <v>-1.4</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="10"/>
-        <v>4620</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="Z18" s="1">
+        <f t="shared" si="13"/>
+        <v>-251</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="10"/>
+        <v>4620</v>
+      </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -2593,8 +2801,15 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+    </row>
+    <row r="19" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -2603,7 +2818,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4">
-        <f t="shared" ref="F19:S19" si="14">+F17-F18</f>
+        <f t="shared" ref="F19:Z19" si="14">+F17-F18</f>
         <v>23304</v>
       </c>
       <c r="G19" s="4">
@@ -2638,25 +2853,29 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4">
-        <f t="shared" si="14"/>
-        <v>139340</v>
-      </c>
       <c r="T19" s="4">
-        <f t="shared" ref="T19" si="15">+T17-T18</f>
-        <v>207894</v>
+        <f>+T17+T18</f>
+        <v>-48.344000000000051</v>
       </c>
       <c r="U19" s="4"/>
-      <c r="V19" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="Z19" s="4">
+        <f t="shared" si="14"/>
+        <v>139340</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" ref="AA19" si="15">+AA17-AA18</f>
+        <v>207894</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>-84.7</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -2680,12 +2899,19 @@
       <c r="AX19" s="4"/>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2722,25 +2948,27 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="10">
-        <f>+S19/S21</f>
-        <v>2.1302169973964618</v>
-      </c>
+      <c r="R20" s="10"/>
       <c r="T20" s="10">
         <f>+T19/T21</f>
+        <v>-0.44270656862116697</v>
+      </c>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="10">
+        <f>+Z19/Z21</f>
+        <v>2.1302169973964618</v>
+      </c>
+      <c r="AA20" s="10">
+        <f>+AA19/AA21</f>
         <v>3.2414689236246796</v>
       </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
+      <c r="AB20" s="13"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -2769,8 +2997,15 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2807,22 +3042,23 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="15">
+      <c r="T21" s="15">
+        <v>109.20099999999999</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15">
         <f>AVERAGE(F21:I21)</f>
         <v>65411.176500000001</v>
       </c>
-      <c r="T21" s="15">
+      <c r="AA21" s="15">
         <f>AVERAGE(J21:M21)</f>
         <v>64135.737500000003</v>
       </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AB21" s="16"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -2851,8 +3087,15 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2908,8 +3151,15 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+    </row>
+    <row r="23" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2928,17 +3178,17 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -2965,8 +3215,15 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
-    </row>
-    <row r="24" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+    </row>
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -2998,22 +3255,22 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="5">
-        <f>+T6/S6-1</f>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="5">
+        <f>+AA6/Z6-1</f>
         <v>0.98359547759020538</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
@@ -3040,8 +3297,15 @@
       <c r="BB24" s="4"/>
       <c r="BC24" s="4"/>
       <c r="BD24" s="4"/>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3073,20 +3337,20 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="6">
-        <f>+T12/S12-1</f>
-        <v>0.57113282477183214</v>
-      </c>
-      <c r="U25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
+      <c r="AA25" s="6">
+        <f>+AA12/Z12-1</f>
+        <v>0.57113282477183214</v>
+      </c>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
@@ -3113,8 +3377,15 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3146,20 +3417,20 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="6">
-        <f>+T13/S13-1</f>
-        <v>0.88061028123678597</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="X26" s="1"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="6">
+        <f>+AA13/Z13-1</f>
+        <v>0.88061028123678597</v>
+      </c>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -3186,8 +3457,15 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+    </row>
+    <row r="27" spans="1:63" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -3218,24 +3496,24 @@
         <v>0.60339099553213416</v>
       </c>
       <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="5">
-        <f>+T6/S6-1</f>
-        <v>0.98359547759020538</v>
-      </c>
-      <c r="U27" s="4"/>
-      <c r="X27" s="4"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="X27" s="5"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="AA27" s="5">
+        <f>+AA6/Z6-1</f>
+        <v>0.98359547759020538</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -3259,8 +3537,15 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3276,6 +3561,8 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3286,8 +3573,6 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -3314,8 +3599,15 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -3328,7 +3620,7 @@
         <v>0.18774006020969583</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:T29" si="20">+G11/G6</f>
+        <f t="shared" ref="G29:AA29" si="20">+G11/G6</f>
         <v>0.17558472851148685</v>
       </c>
       <c r="H29" s="6">
@@ -3356,38 +3648,38 @@
         <v>0.15001480014698076</v>
       </c>
       <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S29" s="8">
+      <c r="Z29" s="8">
         <f t="shared" si="20"/>
         <v>0.1679504206892832</v>
       </c>
-      <c r="T29" s="8">
+      <c r="AA29" s="8">
         <f t="shared" si="20"/>
         <v>0.16122053784080259</v>
       </c>
-      <c r="U29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
@@ -3402,8 +3694,15 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
-    </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3429,7 +3728,7 @@
         <v>-3.7056174798848454E-3</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ref="K30:T30" si="22">+K18/K17</f>
+        <f t="shared" ref="K30:AA30" si="22">+K18/K17</f>
         <v>3.0667652842169825E-4</v>
       </c>
       <c r="L30" s="6">
@@ -3441,25 +3740,25 @@
         <v>9.665035604885229E-2</v>
       </c>
       <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S30" s="8">
+      <c r="Z30" s="8">
         <f t="shared" si="22"/>
         <v>-1.804599932417373E-3</v>
       </c>
-      <c r="T30" s="8">
+      <c r="AA30" s="8">
         <f t="shared" si="22"/>
         <v>2.1739744205087664E-2</v>
       </c>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
@@ -3468,13 +3767,13 @@
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
@@ -3489,8 +3788,15 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3507,13 +3813,13 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -3547,8 +3853,15 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3565,13 +3878,13 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -3605,8 +3918,15 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+    </row>
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3625,13 +3945,13 @@
         <v>258770</v>
       </c>
       <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -3665,8 +3985,15 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+    </row>
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -3685,13 +4012,13 @@
         <v>69206</v>
       </c>
       <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -3725,8 +4052,15 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+    </row>
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3745,13 +4079,13 @@
         <v>121149</v>
       </c>
       <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -3785,8 +4119,15 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+    </row>
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -3847,8 +4188,15 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+    </row>
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3909,8 +4257,15 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+    </row>
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4326,15 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
-    </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+    </row>
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -4033,8 +4395,15 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
-    </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+    </row>
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -4095,8 +4464,15 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
-    </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+    </row>
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -4157,8 +4533,15 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
-    </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+    </row>
+    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4214,8 +4597,15 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
-    </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+    </row>
+    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4616,15 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -4238,8 +4635,15 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -4250,8 +4654,15 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -4262,8 +4673,15 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -4274,8 +4692,15 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -4287,21 +4712,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010078CBFEB144F63F4E9EB43CF067A3FDD2" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="a69c8557812fdce02e4884327d4021cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de0fd296-9832-4e10-a7ad-2bcee574d3b0" xmlns:ns4="02570eab-4ecf-4bb5-b806-a666b23f79b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df2c335e9af1861dda24e1cd6a142658" ns3:_="" ns4:_="">
     <xsd:import namespace="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
@@ -4478,32 +4888,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C70BECF-B16F-4B11-9BAC-5129DEC11994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C367960-153C-4EC3-9852-5C7D3E566193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6412120D-3BA8-4560-803B-D3A020164124}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4520,4 +4920,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C367960-153C-4EC3-9852-5C7D3E566193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C70BECF-B16F-4B11-9BAC-5129DEC11994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="02570eab-4ecf-4bb5-b806-a666b23f79b6"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="de0fd296-9832-4e10-a7ad-2bcee574d3b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>